--- a/cicada_generator/lib/WHO/antigen/Mumps.xlsx
+++ b/cicada_generator/lib/WHO/antigen/Mumps.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t xml:space="preserve">Series Name</t>
   </si>
@@ -71,55 +71,53 @@
     <t xml:space="preserve">12 months</t>
   </si>
   <si>
+    <t xml:space="preserve">Preferable Vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMR (03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allowable Vaccine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumps (07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMRV (94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurring Dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dose 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 months</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 months</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferable Vaccine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMR (03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allowable Vaccine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumps (07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMRV (94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurring Dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dose 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 years</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preferable Interval</t>
   </si>
   <si>
     <t xml:space="preserve">4 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 months</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font/>
   </fonts>
   <fills count="2">
@@ -136,11 +134,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -458,8 +458,8 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -473,33 +473,33 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -510,10 +510,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -549,24 +549,24 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -583,7 +583,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -600,8 +600,8 @@
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>31</v>
+      <c r="H16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>9</v>
@@ -618,33 +618,33 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
@@ -655,10 +655,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
@@ -669,10 +669,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>18</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>12</v>
